--- a/biology/Zoologie/Amaurospiza_carrizalensis/Amaurospiza_carrizalensis.xlsx
+++ b/biology/Zoologie/Amaurospiza_carrizalensis/Amaurospiza_carrizalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amaurospiza carrizalensis, anciennement Sporophile du Carrizal, est une espèce de passereaux de la famille des Cardinalidae qui était auparavant placée dans la famille des Thraupidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve au Venezuela et en Bolivie. Il vit dans les forêts de bambous, en particulier dans les Guadua latifolia et Ripidocladus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve au Venezuela et en Bolivie. Il vit dans les forêts de bambous, en particulier dans les Guadua latifolia et Ripidocladus.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Miguel Lentino et Robin Restall, « A New Species of Amaurospiza Blue Seedeater from Venezuela », The Auk, Washington, AOS, vol. 120, no 3,‎ juillet 2003, p. 600 (ISSN 0004-8038 et 1938-4254, OCLC 636759596 et 1518634, BNF 37574357, DOI 10.1642/0004-8038(2003)120[0600:ANSOAB]2.0.CO;2, JSTOR 4090092, lire en ligne)</t>
         </is>
